--- a/output_additional_column/1968.xlsx
+++ b/output_additional_column/1968.xlsx
@@ -490,7 +490,7 @@
         <v>41728</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>55954</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>75922</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>44377</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>73455</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>69674</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>63841</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>75693</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>43795</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>83664</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>70777</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>61314</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>19514</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>38443</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>51287</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>29187</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>41335</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>42564</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>19329</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>40706</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>19514</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>34053</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>50014</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>70566</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="26">
@@ -1066,7 +1066,7 @@
         <v>36778</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>48985</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>35322</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="29">
@@ -1138,7 +1138,7 @@
         <v>63841</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="30">
@@ -1162,7 +1162,7 @@
         <v>40521</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="31">
@@ -1186,7 +1186,7 @@
         <v>23748</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="32">
@@ -1210,7 +1210,7 @@
         <v>77382</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="33">
@@ -1234,7 +1234,7 @@
         <v>58554</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="34">
@@ -1258,7 +1258,7 @@
         <v>41335</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1282,7 @@
         <v>63841</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="36">
@@ -1306,7 +1306,7 @@
         <v>34916</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="37">
@@ -1330,7 +1330,7 @@
         <v>56534</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="38">
@@ -1354,7 +1354,7 @@
         <v>41120</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="39">
@@ -1378,7 +1378,7 @@
         <v>64590</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="40">
@@ -1402,7 +1402,7 @@
         <v>63967</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="41">
@@ -1426,7 +1426,7 @@
         <v>27071</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="42">
@@ -1450,7 +1450,7 @@
         <v>32889</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="43">
@@ -1474,7 +1474,7 @@
         <v>50616</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="44">
@@ -1498,7 +1498,7 @@
         <v>61671</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="45">
@@ -1522,7 +1522,7 @@
         <v>45688</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="46">
@@ -1546,7 +1546,7 @@
         <v>57107</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="47">
@@ -1570,7 +1570,7 @@
         <v>29543</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="48">
@@ -1594,7 +1594,7 @@
         <v>36065</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="49">
@@ -1618,7 +1618,7 @@
         <v>38236</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="50">
@@ -1642,7 +1642,7 @@
         <v>36997</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="51">
@@ -1666,7 +1666,7 @@
         <v>35893</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
     <row r="52">
@@ -1690,7 +1690,7 @@
         <v>58554</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76711071133</v>
+        <v>44703.79033018005</v>
       </c>
     </row>
   </sheetData>
